--- a/data/trans_orig/P14C06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F46EF3DC-91AC-4AAB-A5B5-17D27C7A0BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC37FC2-26C0-40BB-ADF4-3D4B78ECC4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{807F2F31-A125-46BA-AF32-6AA842BDB1C8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EA1ACF5A-86FE-4F67-B168-B62F9317DE34}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -726,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC2192F-86C9-4598-AF33-568A6A5711E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081BD192-4C14-40F4-8B2B-20E50549484F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C06-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC37FC2-26C0-40BB-ADF4-3D4B78ECC4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F1DD55-4EDF-46F4-A112-ED9FE00260EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EA1ACF5A-86FE-4F67-B168-B62F9317DE34}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D25E6074-C9A3-49B4-AF8D-C8065443DC8F}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="93">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la úlcera de estómago en 2015 (Tasa respuesta: 0,67%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="95">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la úlcera de estómago en 2016 (Tasa respuesta: 0,67%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>64,89%</t>
   </si>
   <si>
-    <t>20,89%</t>
+    <t>21,17%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,214 +83,220 @@
     <t>80,54%</t>
   </si>
   <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>76,96%</t>
   </si>
   <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 años</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
     <t>56,32%</t>
   </si>
   <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>De 1 a 4 años</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
   </si>
   <si>
     <t>63,53%</t>
   </si>
   <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
   </si>
   <si>
     <t>19,08%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
   </si>
   <si>
     <t>31,77%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
   </si>
   <si>
     <t>28,06%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -299,19 +305,19 @@
     <t>11,9%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -726,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081BD192-4C14-40F4-8B2B-20E50549484F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60288707-8CA5-4149-B1C9-33746C3892F8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -982,13 +988,13 @@
         <v>940</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1003,13 +1009,13 @@
         <v>4760</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -1018,13 +1024,13 @@
         <v>16076</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -1033,18 +1039,18 @@
         <v>20836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1056,10 +1062,10 @@
         <v>7468</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
@@ -1071,13 +1077,13 @@
         <v>5318</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -1086,13 +1092,13 @@
         <v>12787</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1107,13 +1113,13 @@
         <v>1038</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -1122,13 +1128,13 @@
         <v>7792</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -1137,13 +1143,13 @@
         <v>8830</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1164,7 +1170,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1173,10 +1179,10 @@
         <v>3140</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>56</v>
@@ -1194,7 +1200,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1209,13 +1215,13 @@
         <v>8506</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -1224,13 +1230,13 @@
         <v>16250</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -1239,18 +1245,18 @@
         <v>24756</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1265,10 +1271,10 @@
         <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1277,7 +1283,7 @@
         <v>1033</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>22</v>
@@ -1292,7 +1298,7 @@
         <v>1964</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>22</v>
@@ -1319,7 +1325,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1328,7 +1334,7 @@
         <v>907</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>22</v>
@@ -1343,7 +1349,7 @@
         <v>906</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>22</v>
@@ -1370,7 +1376,7 @@
         <v>30</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1385,7 +1391,7 @@
         <v>30</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1400,7 +1406,7 @@
         <v>30</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1415,13 +1421,13 @@
         <v>930</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -1430,13 +1436,13 @@
         <v>1940</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -1445,13 +1451,13 @@
         <v>2870</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1468,13 +1474,13 @@
         <v>11487</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -1483,13 +1489,13 @@
         <v>19300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -1498,13 +1504,13 @@
         <v>30787</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,13 +1525,13 @@
         <v>2709</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -1534,13 +1540,13 @@
         <v>10887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -1549,13 +1555,13 @@
         <v>13596</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1576,7 +1582,7 @@
         <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -1585,13 +1591,13 @@
         <v>4079</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -1600,13 +1606,13 @@
         <v>4079</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1621,13 +1627,13 @@
         <v>14196</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -1636,13 +1642,13 @@
         <v>34266</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -1651,18 +1657,18 @@
         <v>48462</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
